--- a/core/seed_sales_officialreceiptheader.xlsx
+++ b/core/seed_sales_officialreceiptheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAC1CB6-6D15-44E7-ACE7-119FC4DBAA73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8665DA9A-A273-4788-9332-C2255CF314A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -34,25 +34,208 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>test-id-14</t>
-  </si>
-  <si>
-    <t>test-id-15</t>
-  </si>
-  <si>
     <t>CREATOR</t>
   </si>
   <si>
-    <t>OR 01</t>
-  </si>
-  <si>
-    <t>OR 02</t>
-  </si>
-  <si>
-    <t>SIH 01</t>
-  </si>
-  <si>
     <t>PAID</t>
+  </si>
+  <si>
+    <t>OR-1</t>
+  </si>
+  <si>
+    <t>TEST-ID-15</t>
+  </si>
+  <si>
+    <t>SI-1</t>
+  </si>
+  <si>
+    <t>OR-2</t>
+  </si>
+  <si>
+    <t>SI-2</t>
+  </si>
+  <si>
+    <t>OR-3</t>
+  </si>
+  <si>
+    <t>TEST-ID-14</t>
+  </si>
+  <si>
+    <t>SI-3</t>
+  </si>
+  <si>
+    <t>OR-4</t>
+  </si>
+  <si>
+    <t>SI-4</t>
+  </si>
+  <si>
+    <t>OR-5</t>
+  </si>
+  <si>
+    <t>SI-5</t>
+  </si>
+  <si>
+    <t>OR-6</t>
+  </si>
+  <si>
+    <t>SI-6</t>
+  </si>
+  <si>
+    <t>OR-7</t>
+  </si>
+  <si>
+    <t>SI-7</t>
+  </si>
+  <si>
+    <t>OR-8</t>
+  </si>
+  <si>
+    <t>SI-8</t>
+  </si>
+  <si>
+    <t>OR-9</t>
+  </si>
+  <si>
+    <t>SI-9</t>
+  </si>
+  <si>
+    <t>OR-10</t>
+  </si>
+  <si>
+    <t>SI-10</t>
+  </si>
+  <si>
+    <t>OR-11</t>
+  </si>
+  <si>
+    <t>SI-11</t>
+  </si>
+  <si>
+    <t>OR-12</t>
+  </si>
+  <si>
+    <t>SI-12</t>
+  </si>
+  <si>
+    <t>OR-13</t>
+  </si>
+  <si>
+    <t>SI-13</t>
+  </si>
+  <si>
+    <t>OR-14</t>
+  </si>
+  <si>
+    <t>SI-14</t>
+  </si>
+  <si>
+    <t>OR-15</t>
+  </si>
+  <si>
+    <t>SI-15</t>
+  </si>
+  <si>
+    <t>OR-16</t>
+  </si>
+  <si>
+    <t>SI-16</t>
+  </si>
+  <si>
+    <t>OR-17</t>
+  </si>
+  <si>
+    <t>SI-17</t>
+  </si>
+  <si>
+    <t>OR-18</t>
+  </si>
+  <si>
+    <t>SI-18</t>
+  </si>
+  <si>
+    <t>OR-19</t>
+  </si>
+  <si>
+    <t>SI-19</t>
+  </si>
+  <si>
+    <t>OR-20</t>
+  </si>
+  <si>
+    <t>SI-20</t>
+  </si>
+  <si>
+    <t>OR-21</t>
+  </si>
+  <si>
+    <t>SI-21</t>
+  </si>
+  <si>
+    <t>OR-22</t>
+  </si>
+  <si>
+    <t>SI-22</t>
+  </si>
+  <si>
+    <t>OR-23</t>
+  </si>
+  <si>
+    <t>SI-23</t>
+  </si>
+  <si>
+    <t>OR-24</t>
+  </si>
+  <si>
+    <t>SI-24</t>
+  </si>
+  <si>
+    <t>OR-25</t>
+  </si>
+  <si>
+    <t>SI-25</t>
+  </si>
+  <si>
+    <t>OR-26</t>
+  </si>
+  <si>
+    <t>SI-26</t>
+  </si>
+  <si>
+    <t>OR-27</t>
+  </si>
+  <si>
+    <t>SI-27</t>
+  </si>
+  <si>
+    <t>OR-28</t>
+  </si>
+  <si>
+    <t>SI-28</t>
+  </si>
+  <si>
+    <t>OR-29</t>
+  </si>
+  <si>
+    <t>SI-29</t>
+  </si>
+  <si>
+    <t>OR-30</t>
+  </si>
+  <si>
+    <t>SI-30</t>
+  </si>
+  <si>
+    <t>OR-31</t>
+  </si>
+  <si>
+    <t>SI-31</t>
+  </si>
+  <si>
+    <t>OR-32</t>
+  </si>
+  <si>
+    <t>SI-32</t>
   </si>
 </sst>
 </file>
@@ -60,7 +243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -541,7 +724,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -931,36 +1114,546 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45658</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>45666</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
+        <v>45659</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45663</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45664</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
         <v>45666</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45673</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45677</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45678</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45680</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45682</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45684</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45685</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45686</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45687</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
